--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27253330" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ27581494" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ27876547" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28144693" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28426993" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ28782025" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29076002" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ29345259" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ29587055" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ07664943" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ07879573" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ08116258" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ08376375" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08622422" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ08883081" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09152479" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09426045" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09671568" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ07664943" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ07879573" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ08116258" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ08376375" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ08622422" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ08883081" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ09152479" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ09426045" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ09671568" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47305199" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ47476983" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ47654368" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47829878" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ48009910" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48192640" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ48378127" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48559373" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ48738292" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9589.019146879924</v>
+        <v>6264.443779274492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1305187177594506</v>
+        <v>0.3117617096370295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-711.2349440701588</v>
+        <v>174.1211657367978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7025875038892367</v>
+        <v>0.9442604047796873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-437.8259370215244</v>
+        <v>-83.3680483818855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8038737327792324</v>
+        <v>0.9644044904744157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1865.049959344703</v>
+        <v>236.7816179125396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5464362932553319</v>
+        <v>0.7803179106390103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84.43259042153207</v>
+        <v>697.590589402412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7544142987770357</v>
+        <v>0.3862832285418086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1397.034743328118</v>
+        <v>-230.8192663111598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01833458010900678</v>
+        <v>0.7874424704744367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.16161425134722</v>
+        <v>1477.635888804815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6309669714918488</v>
+        <v>0.06704358511993058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>470.4194658991923</v>
+        <v>-103.1638084882058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1159066599748541</v>
+        <v>0.7020090953559899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.1525649343944</v>
+        <v>-1436.020146987179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008608413206464518</v>
+        <v>0.01613545524123585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3475024349323556</v>
+        <v>-6.435834201163505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04660036447592029</v>
+        <v>0.8217432300920015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.027169724263175e-05</v>
+        <v>464.1592549163218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9716314057966213</v>
+        <v>0.1217413496397614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.139046270869883</v>
+        <v>540.9357211828204</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8822030332541237</v>
+        <v>0.004830371414727553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.60041750796625</v>
+        <v>0.3250516826446449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7958968545645708</v>
+        <v>0.06504753503677504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2600.094351435609</v>
+        <v>8.656654442691398e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5801443847848091</v>
+        <v>0.9761264556850359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3840.065463612239</v>
+        <v>14.33252490871436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4091273792468514</v>
+        <v>0.7669818712023923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-8.731508033447295</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8319781954046517</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2520.976286310312</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5912699190298034</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3962.213950875906</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3946669647775711</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-7117.049426017355</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1482442271722664</v>
+      <c r="B20" t="n">
+        <v>-7124.426277433507</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1509513510259737</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10100.32199710785</v>
+        <v>9458.748584398361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09185667473192506</v>
+        <v>0.1138466152542727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>762.8527026740323</v>
+        <v>-2242.1033375741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6388570092458075</v>
+        <v>0.2820280078817987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1094.291849006048</v>
+        <v>-615.1012908341813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4645192088235571</v>
+        <v>0.7306173183615793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-268.299966192058</v>
+        <v>91.20642531794687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.928083888755145</v>
+        <v>0.9125305891017931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175.6320186431735</v>
+        <v>919.9611715347119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5113649270159875</v>
+        <v>0.2350449495113479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1472.42323030451</v>
+        <v>57.2391033044039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01012710025846678</v>
+        <v>0.9449306372688479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.82765079546905</v>
+        <v>1348.972053123113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5264051380642971</v>
+        <v>0.0881593409933355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>319.7961190083155</v>
+        <v>139.0056765908662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2793639446828727</v>
+        <v>0.6042320423726015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>490.8176966169857</v>
+        <v>-1541.918743193851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008638404467187616</v>
+        <v>0.007551481989724755</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3438474108298541</v>
+        <v>-15.95358858213493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03864790899723719</v>
+        <v>0.5634517385941555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001008390808124037</v>
+        <v>301.171880177191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7249381338289064</v>
+        <v>0.3107652687577218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.15111927977299</v>
+        <v>498.4942756054291</v>
       </c>
       <c r="C13" t="n">
-        <v>0.830534124766015</v>
+        <v>0.007844752695359246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.67191048626865</v>
+        <v>0.2856325698350092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5840966995696233</v>
+        <v>0.09164733144404129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1233.310438331506</v>
+        <v>5.395577034850499e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.792712362489563</v>
+        <v>0.8514123580227102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4083.176224502942</v>
+        <v>4.380723201062377</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3666066724043822</v>
+        <v>0.9274712894431764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-25.47028513667758</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5228119087516211</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1463.812631483728</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7554680847595993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3954.172611528266</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.381218759184577</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-6849.626052543637</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1446235918898287</v>
+      <c r="B20" t="n">
+        <v>-7849.056281420352</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1002759343696318</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3551.212792981246</v>
+        <v>3526.66909159663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5473915302996244</v>
+        <v>0.5519836912429669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>634.4501093073352</v>
+        <v>-2571.438565985788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7086952797839441</v>
+        <v>0.249812515715047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>708.0690025469064</v>
+        <v>-765.0892539285911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6556572302846166</v>
+        <v>0.6457565941654559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-811.3327996419565</v>
+        <v>-201.958168635979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7861960073448359</v>
+        <v>0.8032810172000017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.04256904960909</v>
+        <v>773.6415571989753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9017451450489524</v>
+        <v>0.3270947744611918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1125.848156769599</v>
+        <v>-109.2000492935445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04904412886604648</v>
+        <v>0.8957245090109434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.873539104906845</v>
+        <v>1271.502477953967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7937752695755271</v>
+        <v>0.1117415678092454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>246.6609274418529</v>
+        <v>-17.35159060370108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4080359582507206</v>
+        <v>0.9469246476782768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.8236891143481</v>
+        <v>-1188.657919349037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001700103812396261</v>
+        <v>0.03876511994689568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2304698777072983</v>
+        <v>8.846344225698942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1668409697425533</v>
+        <v>0.7459911573261357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.188643995228287e-05</v>
+        <v>236.916425058678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9387447763040284</v>
+        <v>0.429870603993504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.67323520688989</v>
+        <v>595.0297275595816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4425444346945293</v>
+        <v>0.001570193590330965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.31855575445423</v>
+        <v>0.1673360429507389</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6057748040885524</v>
+        <v>0.3274176802369223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>797.1627508840743</v>
+        <v>-8.688150551975187e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8632783099085308</v>
+        <v>0.7621278089431921</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6115.673181246814</v>
+        <v>52.45570038185288</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17259010719597</v>
+        <v>0.279197699987609</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14.14424788826765</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7220429777014392</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1232.366883319334</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7900181518447658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6046.065548233317</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1768740614893659</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-5644.803469174625</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2338076450604568</v>
+      <c r="B20" t="n">
+        <v>-6892.615562659079</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1549626925273081</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9624.616116432355</v>
+        <v>10999.28664934736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1006281231118168</v>
+        <v>0.06141151159960664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.167129528897</v>
+        <v>-2661.060526673187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8459078044075216</v>
+        <v>0.2192804342040439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.1780168653348</v>
+        <v>-2386.565172651282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6100190176058091</v>
+        <v>0.1729678177231806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1357.16352812622</v>
+        <v>-186.8170801311937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6562988920634156</v>
+        <v>0.8204945290203544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.3517417255491</v>
+        <v>684.1507505290646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6175570194893394</v>
+        <v>0.3790927328861378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-723.4429789311298</v>
+        <v>-493.6398292681063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2001268692735338</v>
+        <v>0.5487724722051746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.26285231413337</v>
+        <v>221.6770745385281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5875770101217856</v>
+        <v>0.7771158114124385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>421.8065007938469</v>
+        <v>138.7592645882799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1541920539708869</v>
+        <v>0.5893212825646368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.4986824407536</v>
+        <v>-773.0156301441118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02492051830131537</v>
+        <v>0.1744362151690799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3266923632757222</v>
+        <v>-20.07198080204572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04694850733166741</v>
+        <v>0.4635777163562066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.422157799459753e-05</v>
+        <v>392.2748555834979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8404431542500805</v>
+        <v>0.188175162392914</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.82547209479619</v>
+        <v>394.4879301699053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9344536814452737</v>
+        <v>0.0306469353404468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.73950896953211</v>
+        <v>0.2716554375747139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5804789338765655</v>
+        <v>0.1048087873660971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362.1599768658264</v>
+        <v>-1.010208985035391e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9356236762448107</v>
+        <v>0.9703150653888037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5870.783393637736</v>
+        <v>10.6989918184643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1908522545135338</v>
+        <v>0.8209350309064598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-29.33285117073705</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.460941104283437</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>822.9379604390688</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8545222214576721</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5860.249654608447</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.190517291913683</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-6247.063131043014</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1875328609096877</v>
+      <c r="B20" t="n">
+        <v>-7921.357039189117</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09992526255616298</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8495.373828935633</v>
+        <v>9324.053023873857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1516656504645668</v>
+        <v>0.1160933218316672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1495.287420766627</v>
+        <v>-2886.219017818962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3698828309225625</v>
+        <v>0.196319135820986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1198.433375479372</v>
+        <v>-629.270027869116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.44139418272731</v>
+        <v>0.7115694076597123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.976969870627</v>
+        <v>-489.2859892938632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7766358782527525</v>
+        <v>0.5447497984579013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2120272374684</v>
+        <v>33.53391447877021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5587540688822612</v>
+        <v>0.9659079229399252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1460.027493250598</v>
+        <v>-775.0030912084367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01058243694578917</v>
+        <v>0.3554067525253517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.495677178303527</v>
+        <v>695.703273085074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7517339915670807</v>
+        <v>0.376893054883124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>564.4763794542263</v>
+        <v>141.9544699255349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05167505233507308</v>
+        <v>0.5805520017501525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.3669410079614</v>
+        <v>-1563.319619392382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0811147670892599</v>
+        <v>0.006497189063604992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2569068059651246</v>
+        <v>-9.828160266194445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1202005693599476</v>
+        <v>0.7228742442964564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-9.561187496340758e-06</v>
+        <v>511.9485020243777</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9718208471953053</v>
+        <v>0.07953117664067243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.886089001983109</v>
+        <v>332.4026103473077</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9169865962465735</v>
+        <v>0.08039191975684763</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-12.28318269215718</v>
+        <v>0.1981456817648541</v>
       </c>
       <c r="C14" t="n">
-        <v>0.758250354162102</v>
+        <v>0.2393735980414387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2673.951495644054</v>
+        <v>-6.716304922632929e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5580899400099115</v>
+        <v>0.8057790330935291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1663.891763891946</v>
+        <v>7.839147013386029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7119736311843312</v>
+        <v>0.8678997470273342</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-16.29017507677502</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6862604664083817</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2887.195008421633</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5275809595499744</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1045.664403176253</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8157427021552379</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-8011.368138000249</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09518649139979227</v>
+      <c r="B20" t="n">
+        <v>-9337.891829243294</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05726051167211738</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7317.538529692539</v>
+        <v>7289.723500844177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2325264243585436</v>
+        <v>0.2306942602702995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>772.3878953911292</v>
+        <v>-2516.817808172233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6636711226879074</v>
+        <v>0.2623289790193089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>842.0508718808844</v>
+        <v>-725.2789024486631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6104378437917708</v>
+        <v>0.6896668388499785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-376.6656066906688</v>
+        <v>-194.5146485888953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9072715917754021</v>
+        <v>0.8233870250841842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.20935694626056</v>
+        <v>734.248999487206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8081055655532378</v>
+        <v>0.3657868430133949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-780.8010031525006</v>
+        <v>-365.9283087541921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1894033160998245</v>
+        <v>0.6733521139737615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.35852551540672</v>
+        <v>1236.75416087398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.299151238016913</v>
+        <v>0.1328234468883536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>607.7298406355387</v>
+        <v>45.87575908013807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04952062891941408</v>
+        <v>0.8639972647186006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>502.8848538156492</v>
+        <v>-900.0032323778331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009765693258479927</v>
+        <v>0.1329572293600494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2962544648510496</v>
+        <v>-26.7854399081226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07967581992541917</v>
+        <v>0.3427590640366711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.523841939843877e-05</v>
+        <v>586.5995510178111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9567762021042551</v>
+        <v>0.05913367792768713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.487490421591659</v>
+        <v>516.4079879595702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8623119404475834</v>
+        <v>0.008116801201066868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.419980914906063</v>
+        <v>0.2349856785890758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9120599910401107</v>
+        <v>0.1723225231661712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>732.0844453690574</v>
+        <v>-7.741722681953796e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8764076857965908</v>
+        <v>0.784488199546448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5754.514742927689</v>
+        <v>27.34471858028423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2211773224786224</v>
+        <v>0.5827936835217049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-6.905011518683018</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8639435670017555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1106.099028260238</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8142364039319251</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6025.055008903573</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2001658348216329</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-4086.676274040283</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4027058193142993</v>
+      <c r="B20" t="n">
+        <v>-5062.265559249135</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3082895857803247</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6057.715438596955</v>
+        <v>6684.49704144878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.326531640675417</v>
+        <v>0.2772443993513913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2352.160220540038</v>
+        <v>-1741.656304453086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2018011840897474</v>
+        <v>0.4132045535369808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2379.318573637103</v>
+        <v>-353.58581035668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1683859758819505</v>
+        <v>0.8451066639403833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1094.33659803036</v>
+        <v>126.1132372534765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7179244635559874</v>
+        <v>0.8802526756827227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.6307915030809</v>
+        <v>844.1602346552584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.873301470854324</v>
+        <v>0.2990514216473436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1112.413583503789</v>
+        <v>-157.7371600958612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05816248091941238</v>
+        <v>0.854529304275494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.38460038871683</v>
+        <v>846.2487277751791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4569214629625705</v>
+        <v>0.2972474140118442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.5066870610661</v>
+        <v>52.75310659349998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3587516225333874</v>
+        <v>0.8437772571156869</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>469.8665230015529</v>
+        <v>-1156.981066355245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01436882843843043</v>
+        <v>0.05086189049386818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2456151859392155</v>
+        <v>-13.27719424078026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1532040733063476</v>
+        <v>0.6404110107650208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.408692046511248e-05</v>
+        <v>276.7528968519009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9078092052275001</v>
+        <v>0.3758487496419283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.40139915197808</v>
+        <v>475.449860972137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9446315263407339</v>
+        <v>0.01369288389098398</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.976167935790521</v>
+        <v>0.2167180527959116</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8483729831515663</v>
+        <v>0.2148663122584808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.3596343113536</v>
+        <v>-6.088412667224479e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9870897036033977</v>
+        <v>0.8371707906895633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2918.056070686334</v>
+        <v>9.555858273727988</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5305011690749648</v>
+        <v>0.8467579340194774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.371895490326711</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8981855465690306</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>673.2937028061542</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8914985585396057</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2764.2927473051</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5519559272373014</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-7167.326431919755</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1426479257430417</v>
+      <c r="B20" t="n">
+        <v>-7806.325021587754</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1168552326389852</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1913.118700650441</v>
+        <v>2766.206570967248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7488681845596526</v>
+        <v>0.6413676980215117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1173.416979355885</v>
+        <v>-2252.088136402665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4919701880091856</v>
+        <v>0.2776949610930483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>748.1382678239617</v>
+        <v>-2001.510508037287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6369056558168638</v>
+        <v>0.2835263219242073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-172.8198471564722</v>
+        <v>-749.2803631604525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9525220471677787</v>
+        <v>0.3681724394659536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186.5105248470351</v>
+        <v>523.6769562518116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4782536714173943</v>
+        <v>0.5031574136298858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-732.2699623439671</v>
+        <v>-757.3466334381808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2008508049060675</v>
+        <v>0.3624165981467464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.90867518216535</v>
+        <v>1030.222772934864</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9421824422968759</v>
+        <v>0.1901203808731933</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417.3927078494319</v>
+        <v>181.7486738610716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1660015403973054</v>
+        <v>0.4899766405266476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.0383564452814</v>
+        <v>-818.4016611751243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002816861053116324</v>
+        <v>0.1552975409327697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2732408274643499</v>
+        <v>-3.634991321778152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1019994354861671</v>
+        <v>0.8938182590653402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002787827626741129</v>
+        <v>347.4686620901791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3861484622379313</v>
+        <v>0.2487690877966206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.2502297023678</v>
+        <v>562.4349239499097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9616477432334875</v>
+        <v>0.00250915734521565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.42760341706346</v>
+        <v>0.1994267683316536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5167417731212172</v>
+        <v>0.2421513096587156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1081.371526406452</v>
+        <v>0.0001999813970620377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8296279039038137</v>
+        <v>0.5358504963217419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3940.005829342397</v>
+        <v>18.73294904687641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3771346943211535</v>
+        <v>0.693891839276508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25.07673528276289</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5397000667312704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-874.4695143096681</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8615405449223907</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3612.787583713088</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4155526716880218</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3051.623010674285</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5195294433756357</v>
+      <c r="B20" t="n">
+        <v>-4851.604412804874</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3148492670126323</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9228.929190735274</v>
+        <v>8939.254863099552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1173907252095806</v>
+        <v>0.1290355802833208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>578.3476323552409</v>
+        <v>-1815.482893801636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7297337394259875</v>
+        <v>0.4014389137583351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>891.7914723728368</v>
+        <v>-810.9007893392736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5674926825839579</v>
+        <v>0.6346379410589764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.0067942177661</v>
+        <v>41.65623485639006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9437276386771276</v>
+        <v>0.959716720326196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.9338458256269</v>
+        <v>798.8048313378027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6924257482353188</v>
+        <v>0.3027293011418784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1146.41901807215</v>
+        <v>103.3701102577679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04570397902283378</v>
+        <v>0.9001235428906171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-25.28494541653899</v>
+        <v>1222.726265135708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.336330809051724</v>
+        <v>0.1216701163138527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>438.1126079861425</v>
+        <v>90.10635853356118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1315516594176031</v>
+        <v>0.7263907378613678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>611.8754345817099</v>
+        <v>-1168.245702595202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001224599073633602</v>
+        <v>0.0427677218492331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2944146431321103</v>
+        <v>-23.42916743451748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06975539417014735</v>
+        <v>0.3881483729959176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0002348764528946205</v>
+        <v>417.4436520925403</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3949467941639369</v>
+        <v>0.1522769971610238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.215245376742288</v>
+        <v>604.3912256868311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9614564213179022</v>
+        <v>0.001414369777523669</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-16.1503783722933</v>
+        <v>0.2381409909862235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6823606431010405</v>
+        <v>0.151674976224007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1157.136560137907</v>
+        <v>-0.0002825068068225374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8024498301120294</v>
+        <v>0.3095162295488683</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5817.916286212762</v>
+        <v>7.612410067778923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.198269153559303</v>
+        <v>0.8699213152367583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-20.66269174960851</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6032474722945804</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1510.326954918995</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7440091290750337</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5389.889595015151</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2332818675747863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2549.672466960223</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5970277390710028</v>
+      <c r="B20" t="n">
+        <v>-3507.159299231108</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4764981486502424</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ47305199" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ47476983" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47654368" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47829878" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ48009910" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48192640" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48378127" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48559373" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ48738292" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42346050" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42524184" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42713787" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ42950612" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43157870" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43360402" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ43550786" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43738270" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43922247" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6264.443779274492</v>
+        <v>2271.111673430442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3117617096370295</v>
+        <v>0.6816480234183151</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174.1211657367978</v>
+        <v>527.214617585837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9442604047796873</v>
+        <v>0.8316467163064036</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-83.3680483818855</v>
+        <v>124.3296389852965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9644044904744157</v>
+        <v>0.9468128337072127</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.7816179125396</v>
+        <v>305.5314379143335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7803179106390103</v>
+        <v>0.7186882916316826</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.590589402412</v>
+        <v>692.8373861038776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3862832285418086</v>
+        <v>0.3898371828858811</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-230.8192663111598</v>
+        <v>-106.0245208152673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7874424704744367</v>
+        <v>0.9009867011500116</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1477.635888804815</v>
+        <v>1518.927383756795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06704358511993058</v>
+        <v>0.05978245990059172</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-103.1638084882058</v>
+        <v>-95.3199056491722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7020090953559899</v>
+        <v>0.7238197126181014</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1436.020146987179</v>
+        <v>-1439.686959516027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01613545524123585</v>
+        <v>0.01593555838937279</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.435834201163505</v>
+        <v>-4.90564155999197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8217432300920015</v>
+        <v>0.8636408927445809</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>464.1592549163218</v>
+        <v>499.2887317888378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1217413496397614</v>
+        <v>0.09514129625867467</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.9357211828204</v>
+        <v>660.3675962430068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004830371414727553</v>
+        <v>0.0001398420865108214</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3250516826446449</v>
+        <v>0.3963223231875879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06504753503677504</v>
+        <v>0.01921294414119224</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.656654442691398e-06</v>
+        <v>0.0001603064248683269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9761264556850359</v>
+        <v>0.5520287989729425</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.33252490871436</v>
+        <v>7.925080998233788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7669818712023923</v>
+        <v>0.8693804503264451</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.731508033447295</v>
+        <v>13.89107229546178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8319781954046517</v>
+        <v>0.7150624050655889</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2520.976286310312</v>
+        <v>-612.1021590236596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5912699190298034</v>
+        <v>0.883020941018181</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3962.213950875906</v>
+        <v>-7213.79744605431</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3946669647775711</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-7124.426277433507</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1509513510259737</v>
+        <v>0.07657974933516692</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9458.748584398361</v>
+        <v>5246.732564152366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1138466152542727</v>
+        <v>0.3320173538388725</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2242.1033375741</v>
+        <v>-1727.839252471387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2820280078817987</v>
+        <v>0.4021710448512944</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-615.1012908341813</v>
+        <v>-403.7067466493302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7306173183615793</v>
+        <v>0.8209473768580593</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.20642531794687</v>
+        <v>174.5330349331555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9125305891017931</v>
+        <v>0.8333787303943704</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.9611715347119</v>
+        <v>911.4331452604573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2350449495113479</v>
+        <v>0.2398980506298634</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.2391033044039</v>
+        <v>200.4067866035551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9449306372688479</v>
+        <v>0.8080626585502918</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1348.972053123113</v>
+        <v>1386.309705256632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0881593409933355</v>
+        <v>0.07991857327753753</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.0056765908662</v>
+        <v>139.1585910077191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6042320423726015</v>
+        <v>0.6042192641709681</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1541.918743193851</v>
+        <v>-1531.73347241846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007551481989724755</v>
+        <v>0.008018912792859668</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.95358858213493</v>
+        <v>-15.13372324188907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5634517385941555</v>
+        <v>0.5840045323352981</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>301.171880177191</v>
+        <v>338.005664904589</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3107652687577218</v>
+        <v>0.2544856884975943</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.4942756054291</v>
+        <v>626.7571791257014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007844752695359246</v>
+        <v>0.0002461928508660563</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2856325698350092</v>
+        <v>0.3566599475913015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09164733144404129</v>
+        <v>0.02964795175306807</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.395577034850499e-05</v>
+        <v>0.0002273863088390551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8514123580227102</v>
+        <v>0.3968843927764355</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.380723201062377</v>
+        <v>-3.933500891868801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9274712894431764</v>
+        <v>0.9345662555419061</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-25.47028513667758</v>
+        <v>-1.012997312106806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5228119087516211</v>
+        <v>0.9781670844176905</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1463.812631483728</v>
+        <v>-2251.440390424736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7554680847595993</v>
+        <v>0.5853402650035475</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3954.172611528266</v>
+        <v>-7363.395468712919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.381218759184577</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-7849.056281420352</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1002759343696318</v>
+        <v>0.06694437583345987</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3526.66909159663</v>
+        <v>-314.0824463462718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5519836912429669</v>
+        <v>0.9525843262257623</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2571.438565985788</v>
+        <v>-2044.249069662718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.249812515715047</v>
+        <v>0.3537913946221243</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-765.0892539285911</v>
+        <v>-558.9128312334072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6457565941654559</v>
+        <v>0.7362159435612581</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-201.958168635979</v>
+        <v>-147.6376185116055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8032810172000017</v>
+        <v>0.8554342477131348</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773.6415571989753</v>
+        <v>729.9197449487747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3270947744611918</v>
+        <v>0.355101393917281</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-109.2000492935445</v>
+        <v>-1.938336606730275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8957245090109434</v>
+        <v>0.9981373173518389</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.502477953967</v>
+        <v>1308.960810285697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1117415678092454</v>
+        <v>0.1016235178706515</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.35159060370108</v>
+        <v>-3.468896497395178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9469246476782768</v>
+        <v>0.9893810939072945</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1188.657919349037</v>
+        <v>-1189.935209494515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03876511994689568</v>
+        <v>0.03868026884657354</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.846344225698942</v>
+        <v>9.42950109967445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7459911573261357</v>
+        <v>0.7300192392589082</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>236.916425058678</v>
+        <v>280.6255787694579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.429870603993504</v>
+        <v>0.3475698265993441</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>595.0297275595816</v>
+        <v>705.3917796542676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001570193590330965</v>
+        <v>4.055499935439142e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1673360429507389</v>
+        <v>0.2350887108820305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3274176802369223</v>
+        <v>0.1523691527352256</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.688150551975187e-05</v>
+        <v>6.337719474677279e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7621278089431921</v>
+        <v>0.8124233902678611</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.45570038185288</v>
+        <v>45.00625297312382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.279197699987609</v>
+        <v>0.3506123976636658</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.14424788826765</v>
+        <v>36.14854566563855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7220429777014392</v>
+        <v>0.3241693515656469</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1232.366883319334</v>
+        <v>-1767.480924447682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7900181518447658</v>
+        <v>0.6681342468670282</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6046.065548233317</v>
+        <v>-8986.395296046729</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1768740614893659</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-6892.615562659079</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1549626925273081</v>
+        <v>0.02387661428213047</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10999.28664934736</v>
+        <v>6842.532424902402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06141151159960664</v>
+        <v>0.197717410774559</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2661.060526673187</v>
+        <v>-2145.127150854083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2192804342040439</v>
+        <v>0.3173607025415515</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2386.565172651282</v>
+        <v>-2170.973469333702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1729678177231806</v>
+        <v>0.2142713397081352</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-186.8170801311937</v>
+        <v>-107.023341897441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8204945290203544</v>
+        <v>0.896503691848614</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684.1507505290646</v>
+        <v>673.9002876673103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3790927328861378</v>
+        <v>0.3867639518303562</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-493.6398292681063</v>
+        <v>-372.579024271748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5487724722051746</v>
+        <v>0.6498960725836722</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.6770745385281</v>
+        <v>257.2953633678012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7771158114124385</v>
+        <v>0.7426578785792114</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.7592645882799</v>
+        <v>149.2425063898963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5893212825646368</v>
+        <v>0.5618111588272664</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-773.0156301441118</v>
+        <v>-783.6714863765842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1744362151690799</v>
+        <v>0.1690050425561424</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.07198080204572</v>
+        <v>-19.0550649857388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4635777163562066</v>
+        <v>0.4868799695164014</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>392.2748555834979</v>
+        <v>440.7261321402504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188175162392914</v>
+        <v>0.1378083406762651</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.4879301699053</v>
+        <v>517.1243177640973</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0306469353404468</v>
+        <v>0.001956872157312405</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2716554375747139</v>
+        <v>0.3403826493418119</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1048087873660971</v>
+        <v>0.03614801654338166</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.010208985035391e-05</v>
+        <v>0.0001469719178750574</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9703150653888037</v>
+        <v>0.5635318678297483</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.6989918184643</v>
+        <v>2.596512015291136</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8209350309064598</v>
+        <v>0.956001049181205</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-29.33285117073705</v>
+        <v>-5.829388251271492</v>
       </c>
       <c r="C17" t="n">
-        <v>0.460941104283437</v>
+        <v>0.8753724257616472</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>822.9379604390688</v>
+        <v>-2490.629149018903</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8545222214576721</v>
+        <v>0.5352038398967043</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5860.249654608447</v>
+        <v>-9268.645911615535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.190517291913683</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-7921.357039189117</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.09992526255616298</v>
+        <v>0.01979806204016723</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9324.053023873857</v>
+        <v>3993.701399187221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1160933218316672</v>
+        <v>0.4455834830059898</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2886.219017818962</v>
+        <v>-2467.611011754811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196319135820986</v>
+        <v>0.2676691346192769</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-629.270027869116</v>
+        <v>-336.7710540023417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7115694076597123</v>
+        <v>0.8427519008121029</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-489.2859892938632</v>
+        <v>-428.9011179437404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5447497984579013</v>
+        <v>0.5957947766290032</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.53391447877021</v>
+        <v>117.6220840688846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9659079229399252</v>
+        <v>0.8808364875170728</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-775.0030912084367</v>
+        <v>-534.4073388514121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3554067525253517</v>
+        <v>0.5197967521128968</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>695.703273085074</v>
+        <v>852.129275977635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.376893054883124</v>
+        <v>0.2773227925514737</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.9544699255349</v>
+        <v>150.9851585237163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5805520017501525</v>
+        <v>0.5572940534788902</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1563.319619392382</v>
+        <v>-1569.167726675593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006497189063604992</v>
+        <v>0.006385191033896106</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.828160266194445</v>
+        <v>-8.75932259082909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7228742442964564</v>
+        <v>0.7523018354253252</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>511.9485020243777</v>
+        <v>546.0364503836356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07953117664067243</v>
+        <v>0.06142912169778198</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>332.4026103473077</v>
+        <v>492.5986696477498</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08039191975684763</v>
+        <v>0.003966340945018959</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1981456817648541</v>
+        <v>0.2863521273448068</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2393735980414387</v>
+        <v>0.07759729635745373</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.716304922632929e-05</v>
+        <v>0.0001305689207941305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8057790330935291</v>
+        <v>0.6058886559568705</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.839147013386029</v>
+        <v>-1.210067525949292</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8678997470273342</v>
+        <v>0.9794453527982515</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.29017507677502</v>
+        <v>14.53370668366183</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6862604664083817</v>
+        <v>0.6944229519230467</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2887.195008421633</v>
+        <v>-1369.314871221025</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5275809595499744</v>
+        <v>0.7315934964777563</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1045.664403176253</v>
+        <v>-5109.935608105596</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8157427021552379</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-9337.891829243294</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05726051167211738</v>
+        <v>0.1963783797748426</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7289.723500844177</v>
+        <v>4569.191340862077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2306942602702995</v>
+        <v>0.4029512916994207</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2516.817808172233</v>
+        <v>-2190.240742384996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2623289790193089</v>
+        <v>0.3243207615608676</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-725.2789024486631</v>
+        <v>-550.481591788481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6896668388499785</v>
+        <v>0.7607996877160952</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-194.5146485888953</v>
+        <v>-138.6759626533679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8233870250841842</v>
+        <v>0.8733278282901328</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>734.248999487206</v>
+        <v>744.8571408570064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3657868430133949</v>
+        <v>0.3588772961605785</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-365.9283087541921</v>
+        <v>-278.5940932500678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6733521139737615</v>
+        <v>0.7470606619516245</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.75416087398</v>
+        <v>1289.478318338643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1328234468883536</v>
+        <v>0.1163892400551114</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.87575908013807</v>
+        <v>47.57784975299523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8639972647186006</v>
+        <v>0.8590039226381834</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-900.0032323778331</v>
+        <v>-890.9402947235935</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1329572293600494</v>
+        <v>0.136866491906928</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.7854399081226</v>
+        <v>-25.44519672348265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3427590640366711</v>
+        <v>0.3669295902437902</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.5995510178111</v>
+        <v>617.8702915483651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05913367792768713</v>
+        <v>0.0457960693321066</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.4079879595702</v>
+        <v>595.8392978476345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008116801201066868</v>
+        <v>0.0008719266114531308</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2349856785890758</v>
+        <v>0.2782305532876341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1723225231661712</v>
+        <v>0.0955311444011815</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.741722681953796e-05</v>
+        <v>2.072920835275317e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.784488199546448</v>
+        <v>0.9379315578374812</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.34471858028423</v>
+        <v>23.54766385819032</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5827936835217049</v>
+        <v>0.6352411231444932</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.905011518683018</v>
+        <v>8.194216761438096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8639435670017555</v>
+        <v>0.826915588981767</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1106.099028260238</v>
+        <v>-1042.017494594458</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8142364039319251</v>
+        <v>0.8044851478963839</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6025.055008903573</v>
+        <v>-8343.286301110176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2001658348216329</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-5062.265559249135</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3082895857803247</v>
+        <v>0.04281256850240942</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6684.49704144878</v>
+        <v>2658.251317919554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2772443993513913</v>
+        <v>0.6346860944959065</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1741.656304453086</v>
+        <v>-1278.623546941556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4132045535369808</v>
+        <v>0.5444562890561601</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-353.58581035668</v>
+        <v>-117.3864162263324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8451066639403833</v>
+        <v>0.9481533022344788</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126.1132372534765</v>
+        <v>186.5971568670419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8802526756827227</v>
+        <v>0.8235887815423624</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>844.1602346552584</v>
+        <v>837.0003992199422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2990514216473436</v>
+        <v>0.3035987466625433</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-157.7371600958612</v>
+        <v>-39.54809010290762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.854529304275494</v>
+        <v>0.9632278024196572</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.2487277751791</v>
+        <v>923.2478572108203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2972474140118442</v>
+        <v>0.2550499492047377</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.75310659349998</v>
+        <v>57.64747499010338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8437772571156869</v>
+        <v>0.8296382880916088</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1156.981066355245</v>
+        <v>-1176.915629091736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05086189049386818</v>
+        <v>0.04716022000685671</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.27719424078026</v>
+        <v>-11.28411057222683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6404110107650208</v>
+        <v>0.6913342653709983</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>276.7528968519009</v>
+        <v>319.4668785212879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3758487496419283</v>
+        <v>0.305301378116253</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>475.449860972137</v>
+        <v>604.3495781100389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01369288389098398</v>
+        <v>0.0005496046330782722</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2167180527959116</v>
+        <v>0.2798219823295069</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2148663122584808</v>
+        <v>0.1002667212605778</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.088412667224479e-05</v>
+        <v>0.0001018039333703329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8371707906895633</v>
+        <v>0.7140020108808764</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.555858273727988</v>
+        <v>3.395959762446854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8467579340194774</v>
+        <v>0.9451210436081571</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.371895490326711</v>
+        <v>27.37190071443597</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8981855465690306</v>
+        <v>0.4895997950920195</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>673.2937028061542</v>
+        <v>-3048.163973240971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8914985585396057</v>
+        <v>0.4818075439433703</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2764.2927473051</v>
+        <v>-6203.946762244833</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5519559272373014</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-7806.325021587754</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1168552326389852</v>
+        <v>0.1306065697227352</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2766.206570967248</v>
+        <v>157.2787191037382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6413676980215117</v>
+        <v>0.976509813324139</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2252.088136402665</v>
+        <v>-1957.327449110919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2776949610930483</v>
+        <v>0.3405490422943905</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2001.510508037287</v>
+        <v>-1822.660038627767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2835263219242073</v>
+        <v>0.3265324497541328</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-749.2803631604525</v>
+        <v>-707.7227303679326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3681724394659536</v>
+        <v>0.3947374917666848</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523.6769562518116</v>
+        <v>517.1642827851367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5031574136298858</v>
+        <v>0.5084686150950104</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-757.3466334381808</v>
+        <v>-663.2568599671214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3624165981467464</v>
+        <v>0.4221117875654732</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1030.222772934864</v>
+        <v>1064.714183439682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1901203808731933</v>
+        <v>0.1753150948651364</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181.7486738610716</v>
+        <v>190.9854110987076</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4899766405266476</v>
+        <v>0.467926791825519</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-818.4016611751243</v>
+        <v>-821.0739304992337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1552975409327697</v>
+        <v>0.1539529335400509</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.634991321778152</v>
+        <v>-2.428907956806576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8938182590653402</v>
+        <v>0.9288640620727803</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347.4686620901791</v>
+        <v>373.5812275999482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2487690877966206</v>
+        <v>0.2132920949154865</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.4349239499097</v>
+        <v>641.0482692794216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00250915734521565</v>
+        <v>0.0001494026719383598</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1994267683316536</v>
+        <v>0.2431868384378488</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2421513096587156</v>
+        <v>0.1402633120024139</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001999813970620377</v>
+        <v>0.0003200458274224965</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5358504963217419</v>
+        <v>0.2863775414431323</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.73294904687641</v>
+        <v>13.11239028097152</v>
       </c>
       <c r="C16" t="n">
-        <v>0.693891839276508</v>
+        <v>0.7814604435183459</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.07673528276289</v>
+        <v>39.39935253928191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5397000667312704</v>
+        <v>0.3040798676239297</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-874.4695143096681</v>
+        <v>-3158.844742075963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8615405449223907</v>
+        <v>0.4797755534549285</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3612.787583713088</v>
+        <v>-5640.813097060004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4155526716880218</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-4851.604412804874</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3148492670126323</v>
+        <v>0.1536915533009777</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8939.254863099552</v>
+        <v>7049.926729624125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1290355802833208</v>
+        <v>0.1796674435670542</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1815.482893801636</v>
+        <v>-1584.502931639051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4014389137583351</v>
+        <v>0.4587288178082066</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-810.9007893392736</v>
+        <v>-706.0143833386569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6346379410589764</v>
+        <v>0.6778286053931564</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.65623485639006</v>
+        <v>63.51493212663237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.959716720326196</v>
+        <v>0.9385517550371886</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>798.8048313378027</v>
+        <v>801.2515220182096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3027293011418784</v>
+        <v>0.3010982276413331</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.3701102577679</v>
+        <v>179.1063987713596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9001235428906171</v>
+        <v>0.8263689247066228</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.726265135708</v>
+        <v>1240.035481553134</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1216701163138527</v>
+        <v>0.1162043424083641</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.10635853356118</v>
+        <v>93.21502991312462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7263907378613678</v>
+        <v>0.7172281746997052</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1168.245702595202</v>
+        <v>-1180.884609259864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0427677218492331</v>
+        <v>0.04041953950051521</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.42916743451748</v>
+        <v>-23.17974702352511</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3881483729959176</v>
+        <v>0.3930322824365012</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>417.4436520925403</v>
+        <v>433.0515298579998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1522769971610238</v>
+        <v>0.1363142000593873</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>604.3912256868311</v>
+        <v>661.7775806528086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001414369777523669</v>
+        <v>0.00011328753170744</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2381409909862235</v>
+        <v>0.2687669681235157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.151674976224007</v>
+        <v>0.09386714214532951</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002825068068225374</v>
+        <v>-0.0002125975068966117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3095162295488683</v>
+        <v>0.4134612370560605</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.612410067778923</v>
+        <v>4.901272150356125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8699213152367583</v>
+        <v>0.9157213061246781</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.66269174960851</v>
+        <v>-9.701256546893442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6032474722945804</v>
+        <v>0.7911886661439018</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1510.326954918995</v>
+        <v>-44.86580230669688</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7440091290750337</v>
+        <v>0.9912165802169997</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5389.889595015151</v>
+        <v>-6954.791773119774</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2332818675747863</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3507.159299231108</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4764981486502424</v>
+        <v>0.07845735779376307</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42346050" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42524184" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42713787" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ42950612" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43157870" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43360402" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ43550786" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43738270" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43922247" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05630095" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ05836349" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06040142" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06262646" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06466730" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ06687259" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ06911828" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07127574" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ07506776" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2271.111673430442</v>
+        <v>5282.603433985961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6816480234183151</v>
+        <v>0.362323902015296</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>527.214617585837</v>
+        <v>-2032.54390500799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8316467163064036</v>
+        <v>0.4355337972192086</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.3296389852965</v>
+        <v>-394.1426537964985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9468128337072127</v>
+        <v>0.8368036036810985</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>305.5314379143335</v>
+        <v>772.6195818849399</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7186882916316826</v>
+        <v>0.3930227826599488</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692.8373861038776</v>
+        <v>507.5673422990251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3898371828858811</v>
+        <v>0.5548979333973925</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-106.0245208152673</v>
+        <v>-760.2815847062157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9009867011500116</v>
+        <v>0.4085137647047176</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1518.927383756795</v>
+        <v>1517.765682205665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05978245990059172</v>
+        <v>0.07843648492222131</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-95.3199056491722</v>
+        <v>84.55177593301008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7238197126181014</v>
+        <v>0.7712504639187063</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1439.686959516027</v>
+        <v>-2297.372983365383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01593555838937279</v>
+        <v>0.0003376323027084994</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.90564155999197</v>
+        <v>-15.91292820293013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8636408927445809</v>
+        <v>0.6011903011185629</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.2887317888378</v>
+        <v>486.0012103417437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09514129625867467</v>
+        <v>0.1332832005995084</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>660.3675962430068</v>
+        <v>631.5413791653822</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001398420865108214</v>
+        <v>0.0006957020498672678</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3963223231875879</v>
+        <v>0.4743806644598349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01921294414119224</v>
+        <v>0.005608943508314665</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001603064248683269</v>
+        <v>-0.0005327687007361428</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5520287989729425</v>
+        <v>0.07850261259023818</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.925080998233788</v>
+        <v>24.41891159478168</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8693804503264451</v>
+        <v>0.6406445251189685</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.89107229546178</v>
+        <v>8.96089714898077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7150624050655889</v>
+        <v>0.8230632119610819</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-612.1021590236596</v>
+        <v>4390.993916481386</v>
       </c>
       <c r="C18" t="n">
-        <v>0.883020941018181</v>
+        <v>0.3336915658883628</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7213.79744605431</v>
+        <v>-9798.224659549991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07657974933516692</v>
+        <v>0.03046775215607112</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5246.732564152366</v>
+        <v>3755.752311617918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3320173538388725</v>
+        <v>0.5298472894648163</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1727.839252471387</v>
+        <v>612.736192536991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4021710448512944</v>
+        <v>0.8294972660417683</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-403.7067466493302</v>
+        <v>465.064015214339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8209473768580593</v>
+        <v>0.8283005743847498</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>174.5330349331555</v>
+        <v>578.2134274715938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8333787303943704</v>
+        <v>0.5314626339545846</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>911.4331452604573</v>
+        <v>852.6926949324663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2398980506298634</v>
+        <v>0.3285155430182028</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.4067866035551</v>
+        <v>-1344.980421601813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8080626585502918</v>
+        <v>0.1569245746412554</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.309705256632</v>
+        <v>556.013919959231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07991857327753753</v>
+        <v>0.5270314781427973</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.1585910077191</v>
+        <v>340.8603760959497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6042192641709681</v>
+        <v>0.2427149850674481</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1531.73347241846</v>
+        <v>-1550.238637713156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008018912792859668</v>
+        <v>0.01594985561243618</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.13372324188907</v>
+        <v>5.384957912979822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5840045323352981</v>
+        <v>0.864328589150436</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>338.005664904589</v>
+        <v>248.7223276560625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2544856884975943</v>
+        <v>0.4540080316082022</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>626.7571791257014</v>
+        <v>456.8726633600518</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002461928508660563</v>
+        <v>0.01644766718349365</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3566599475913015</v>
+        <v>0.4170798188569194</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02964795175306807</v>
+        <v>0.01631495966658812</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002273863088390551</v>
+        <v>-1.213864190635573e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3968843927764355</v>
+        <v>0.9967179223445282</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.933500891868801</v>
+        <v>-3.220430701706277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9345662555419061</v>
+        <v>0.9515131315074496</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.012997312106806</v>
+        <v>37.27620190813907</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9781670844176905</v>
+        <v>0.373010568669691</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2251.440390424736</v>
+        <v>-3219.25502533905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5853402650035475</v>
+        <v>0.4849278768605031</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7363.395468712919</v>
+        <v>-10327.53456145079</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06694437583345987</v>
+        <v>0.02307249004731911</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-314.0824463462718</v>
+        <v>8367.09455924051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9525843262257623</v>
+        <v>0.1589551204088545</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2044.249069662718</v>
+        <v>-1842.347526211125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3537913946221243</v>
+        <v>0.4141377258913038</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-558.9128312334072</v>
+        <v>-2477.31034814754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7362159435612581</v>
+        <v>0.2306597401056558</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-147.6376185116055</v>
+        <v>412.5867058941081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8554342477131348</v>
+        <v>0.6454172253012841</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>729.9197449487747</v>
+        <v>-70.22038082971972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.355101393917281</v>
+        <v>0.9357580168406039</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.938336606730275</v>
+        <v>-1048.023298712335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9981373173518389</v>
+        <v>0.2574663016260726</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.960810285697</v>
+        <v>1161.16373429767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1016235178706515</v>
+        <v>0.1753831905559212</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.468896497395178</v>
+        <v>-18.80926948561353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9893810939072945</v>
+        <v>0.9476347758344891</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1189.935209494515</v>
+        <v>-1270.758439783312</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03868026884657354</v>
+        <v>0.04509656850897837</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.42950109967445</v>
+        <v>-38.03442398309556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7300192392589082</v>
+        <v>0.2082908004858685</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>280.6255787694579</v>
+        <v>530.4212894708194</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3475698265993441</v>
+        <v>0.1080869430709956</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.3917796542676</v>
+        <v>479.4016464419632</v>
       </c>
       <c r="C13" t="n">
-        <v>4.055499935439142e-05</v>
+        <v>0.01201059053217636</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2350887108820305</v>
+        <v>0.5302283683397198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1523691527352256</v>
+        <v>0.001765660103253284</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.337719474677279e-05</v>
+        <v>7.973487930411287e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8124233902678611</v>
+        <v>0.782653060421566</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.00625297312382</v>
+        <v>-13.30521415922595</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3506123976636658</v>
+        <v>0.7989546051174089</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.14854566563855</v>
+        <v>8.265964198499255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3241693515656469</v>
+        <v>0.8396109370841144</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1767.480924447682</v>
+        <v>-2023.961488007447</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6681342468670282</v>
+        <v>0.6541794514172008</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-8986.395296046729</v>
+        <v>-10709.54048920144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02387661428213047</v>
+        <v>0.0155617606608586</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6842.532424902402</v>
+        <v>1416.189382083729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197717410774559</v>
+        <v>0.8183841880419749</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2145.127150854083</v>
+        <v>-1450.014674391813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3173607025415515</v>
+        <v>0.5451221292808403</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2170.973469333702</v>
+        <v>-521.8122834820233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2142713397081352</v>
+        <v>0.7867965560998064</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-107.023341897441</v>
+        <v>589.2138743941007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.896503691848614</v>
+        <v>0.5350572066083316</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>673.9002876673103</v>
+        <v>532.6213283059043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3867639518303562</v>
+        <v>0.5530852942148026</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-372.579024271748</v>
+        <v>-1519.797371317319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6498960725836722</v>
+        <v>0.1127918672254612</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>257.2953633678012</v>
+        <v>653.3177526571108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7426578785792114</v>
+        <v>0.464509122004913</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149.2425063898963</v>
+        <v>229.0282726203356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5618111588272664</v>
+        <v>0.4430293314149154</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-783.6714863765842</v>
+        <v>-1478.823881475457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1690050425561424</v>
+        <v>0.02441464528352514</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.0550649857388</v>
+        <v>-13.92068288295217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4868799695164014</v>
+        <v>0.6577223602259246</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>440.7261321402504</v>
+        <v>-109.9785794343354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1378083406762651</v>
+        <v>0.7471166921239032</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.1243177640973</v>
+        <v>672.4307739442893</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001956872157312405</v>
+        <v>0.0005441921208000423</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3403826493418119</v>
+        <v>0.3606802394164229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03614801654338166</v>
+        <v>0.04500426475828363</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001469719178750574</v>
+        <v>8.704474102576366e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5635318678297483</v>
+        <v>0.7723884016468132</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.596512015291136</v>
+        <v>29.99072310042243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.956001049181205</v>
+        <v>0.5765918511079948</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.829388251271492</v>
+        <v>55.61731249361824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8753724257616472</v>
+        <v>0.1979446904582101</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2490.629149018903</v>
+        <v>-4864.582805471728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5352038398967043</v>
+        <v>0.302179012620816</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9268.645911615535</v>
+        <v>-9050.948505956036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01979806204016723</v>
+        <v>0.0502519220621901</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3993.701399187221</v>
+        <v>-371.758395695597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4455834830059898</v>
+        <v>0.9504118299376014</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2467.611011754811</v>
+        <v>-69.53855791895944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2676691346192769</v>
+        <v>0.975927457260773</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-336.7710540023417</v>
+        <v>598.4817330193332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8427519008121029</v>
+        <v>0.7642685390759695</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-428.9011179437404</v>
+        <v>1737.057340052381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5957947766290032</v>
+        <v>0.06158772031608226</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.6220840688846</v>
+        <v>625.9424948297882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8808364875170728</v>
+        <v>0.4771063256435286</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-534.4073388514121</v>
+        <v>-1349.950000544439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5197967521128968</v>
+        <v>0.1504371453638797</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852.129275977635</v>
+        <v>715.6406727624009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2773227925514737</v>
+        <v>0.4170780265135337</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.9851585237163</v>
+        <v>99.51808219395051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5572940534788902</v>
+        <v>0.7378505786964566</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1569.167726675593</v>
+        <v>-913.1417038300924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006385191033896106</v>
+        <v>0.1558526581360779</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.75932259082909</v>
+        <v>-19.64130548476792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7523018354253252</v>
+        <v>0.5264649717578689</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>546.0364503836356</v>
+        <v>531.7310252245263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06142912169778198</v>
+        <v>0.1052300368272706</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.5986696477498</v>
+        <v>683.65275316357</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003966340945018959</v>
+        <v>0.0003553185382480556</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2863521273448068</v>
+        <v>0.5554085764992693</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07759729635745373</v>
+        <v>0.001202828172459009</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001305689207941305</v>
+        <v>1.708616776428706e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6058886559568705</v>
+        <v>0.9514272245432562</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.210067525949292</v>
+        <v>24.62705200041025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9794453527982515</v>
+        <v>0.6319477667087869</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.53370668366183</v>
+        <v>49.49067287917804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6944229519230467</v>
+        <v>0.2335187820430335</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1369.314871221025</v>
+        <v>-1121.631878925113</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7315934964777563</v>
+        <v>0.8050689023514085</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5109.935608105596</v>
+        <v>-13311.4872389313</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1963783797748426</v>
+        <v>0.003542753973235168</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4569.191340862077</v>
+        <v>2953.384994494772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4029512916994207</v>
+        <v>0.6239949487280568</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2190.240742384996</v>
+        <v>-2720.702717148303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3243207615608676</v>
+        <v>0.2717441070609712</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-550.481591788481</v>
+        <v>408.7349555040835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7607996877160952</v>
+        <v>0.8440278564592661</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-138.6759626533679</v>
+        <v>410.2595153729041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8733278282901328</v>
+        <v>0.6761515601287829</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>744.8571408570064</v>
+        <v>987.1898631967613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3588772961605785</v>
+        <v>0.2722515545486642</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-278.5940932500678</v>
+        <v>-1094.533065000808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7470606619516245</v>
+        <v>0.2564561141751886</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1289.478318338643</v>
+        <v>1457.906419560667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1163892400551114</v>
+        <v>0.1077272748811057</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.57784975299523</v>
+        <v>22.27698475412041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8590039226381834</v>
+        <v>0.941161606143326</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-890.9402947235935</v>
+        <v>-1746.845107518265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.136866491906928</v>
+        <v>0.008379072718570118</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.44519672348265</v>
+        <v>-10.18234256715837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3669295902437902</v>
+        <v>0.7481768928776475</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>617.8702915483651</v>
+        <v>491.0989308911784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0457960693321066</v>
+        <v>0.1455798417488558</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>595.8392978476345</v>
+        <v>636.9299622907124</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008719266114531308</v>
+        <v>0.000868731639181164</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2782305532876341</v>
+        <v>0.3059343148473818</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0955311444011815</v>
+        <v>0.08754746909370952</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.072920835275317e-05</v>
+        <v>-0.0001331637521307495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9379315578374812</v>
+        <v>0.6440171942276149</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.54766385819032</v>
+        <v>50.28085913970274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6352411231444932</v>
+        <v>0.3471126766702535</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.194216761438096</v>
+        <v>27.902359422095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.826915588981767</v>
+        <v>0.5026608520092483</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1042.017494594458</v>
+        <v>-917.4101790098066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8044851478963839</v>
+        <v>0.8437641785328136</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-8343.286301110176</v>
+        <v>-10003.32671444713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04281256850240942</v>
+        <v>0.0320276204271534</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2658.251317919554</v>
+        <v>6825.068095316066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6346860944959065</v>
+        <v>0.2349313618535566</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1278.623546941556</v>
+        <v>-2216.620229645363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5444562890561601</v>
+        <v>0.3369684708872555</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-117.3864162263324</v>
+        <v>-379.3660354464753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9481533022344788</v>
+        <v>0.8427901687385145</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>186.5971568670419</v>
+        <v>-331.19302439647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8235887815423624</v>
+        <v>0.7079264579592723</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>837.0003992199422</v>
+        <v>690.8533088830587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3035987466625433</v>
+        <v>0.4136680770007808</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.54809010290762</v>
+        <v>-977.3931192686204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9632278024196572</v>
+        <v>0.2835165504164846</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>923.2478572108203</v>
+        <v>1036.803599288142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2550499492047377</v>
+        <v>0.2251040088204999</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.64747499010338</v>
+        <v>238.5171505389515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8296382880916088</v>
+        <v>0.4000047188151165</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1176.915629091736</v>
+        <v>-1599.504660410845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04716022000685671</v>
+        <v>0.0106739266923047</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.28411057222683</v>
+        <v>-36.31902372637214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6913342653709983</v>
+        <v>0.2280760030569953</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>319.4668785212879</v>
+        <v>298.4836026396987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.305301378116253</v>
+        <v>0.3483685214858533</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>604.3495781100389</v>
+        <v>612.0357005913812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005496046330782722</v>
+        <v>0.0008795729220565897</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2798219823295069</v>
+        <v>0.3796176285163231</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1002667212605778</v>
+        <v>0.02364761972138286</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001018039333703329</v>
+        <v>-7.326248250395535e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7140020108808764</v>
+        <v>0.9787097046771849</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.395959762446854</v>
+        <v>15.68146859866334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9451210436081571</v>
+        <v>0.756080937403844</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.37190071443597</v>
+        <v>12.69516009477469</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4895997950920195</v>
+        <v>0.7498037743103905</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3048.163973240971</v>
+        <v>179.5927551500515</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4818075439433703</v>
+        <v>0.9674847226382906</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6203.946762244833</v>
+        <v>-10676.89747092793</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1306065697227352</v>
+        <v>0.01621077297259185</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.2787191037382</v>
+        <v>1264.360322105747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.976509813324139</v>
+        <v>0.8348559399981464</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1957.327449110919</v>
+        <v>-2031.684600882208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3405490422943905</v>
+        <v>0.4075441181583144</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1822.660038627767</v>
+        <v>-613.6195526150764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3265324497541328</v>
+        <v>0.7546991626770425</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-707.7227303679326</v>
+        <v>358.3271604528894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3947374917666848</v>
+        <v>0.7087358141760508</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1642827851367</v>
+        <v>381.3374602861122</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5084686150950104</v>
+        <v>0.6710659145282201</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-663.2568599671214</v>
+        <v>-1750.967117055387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4221117875654732</v>
+        <v>0.06826899998475131</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1064.714183439682</v>
+        <v>741.4913779291692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1753150948651364</v>
+        <v>0.4061641355552742</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.9854110987076</v>
+        <v>87.0604588747162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.467926791825519</v>
+        <v>0.7734050131470119</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-821.0739304992337</v>
+        <v>-1672.567585341191</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1539529335400509</v>
+        <v>0.01103688891569279</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.428907956806576</v>
+        <v>-23.20014591013815</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9288640620727803</v>
+        <v>0.458851972462987</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>373.5812275999482</v>
+        <v>359.8107114421059</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2132920949154865</v>
+        <v>0.2848017834235409</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.0482692794216</v>
+        <v>670.6839897224386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001494026719383598</v>
+        <v>0.0004334788089521064</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2431868384378488</v>
+        <v>0.4238974806245387</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1402633120024139</v>
+        <v>0.0187647020860509</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003200458274224965</v>
+        <v>-7.811229954728135e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2863775414431323</v>
+        <v>0.7883021756362042</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.11239028097152</v>
+        <v>59.42323664252788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7814604435183459</v>
+        <v>0.2594081115083575</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.39935253928191</v>
+        <v>57.4164244329606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3040798676239297</v>
+        <v>0.1725738853644094</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3158.844742075963</v>
+        <v>-1550.895953038607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4797755534549285</v>
+        <v>0.7406892311715628</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5640.813097060004</v>
+        <v>-14764.17227173797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1536915533009777</v>
+        <v>0.001604697834085766</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7049.926729624125</v>
+        <v>6119.736899341849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1796674435670542</v>
+        <v>0.3024623448919829</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1584.502931639051</v>
+        <v>-1220.318780738675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4587288178082066</v>
+        <v>0.5934294751229704</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-706.0143833386569</v>
+        <v>866.8744828227077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6778286053931564</v>
+        <v>0.6517498557524423</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.51493212663237</v>
+        <v>1301.021364106424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9385517550371886</v>
+        <v>0.1592035246454904</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>801.2515220182096</v>
+        <v>651.5077989414191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3010982276413331</v>
+        <v>0.457668406232521</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.1063987713596</v>
+        <v>-693.1839046864835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8263689247066228</v>
+        <v>0.4587647622541905</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1240.035481553134</v>
+        <v>862.677525234111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1162043424083641</v>
+        <v>0.3196188532401594</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.21502991312462</v>
+        <v>-44.16821330864241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7172281746997052</v>
+        <v>0.8789212932052166</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1180.884609259864</v>
+        <v>-1289.548801205412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04041953950051521</v>
+        <v>0.04266845635385721</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.17974702352511</v>
+        <v>-16.72643249293138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3930322824365012</v>
+        <v>0.5884187361448708</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>433.0515298579998</v>
+        <v>711.6115911876178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1363142000593873</v>
+        <v>0.03094335489279386</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>661.7775806528086</v>
+        <v>510.1999591672866</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00011328753170744</v>
+        <v>0.006132015844935037</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2687669681235157</v>
+        <v>0.3310692336338899</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09386714214532951</v>
+        <v>0.05570572483340528</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002125975068966117</v>
+        <v>4.6004124114034e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4134612370560605</v>
+        <v>0.8900526552632398</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.901272150356125</v>
+        <v>9.561047709447621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9157213061246781</v>
+        <v>0.8527498685681367</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.701256546893442</v>
+        <v>5.269392053545005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7911886661439018</v>
+        <v>0.8990021042349085</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-44.86580230669688</v>
+        <v>-4840.58622767398</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9912165802169997</v>
+        <v>0.3176312967512792</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6954.791773119774</v>
+        <v>-8099.387756938575</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07845735779376307</v>
+        <v>0.06980476762749398</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ05630095" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ05836349" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06040142" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06262646" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06466730" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ06687259" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ06911828" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07127574" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ07506776" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ53656317" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ53886054" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ54150809" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ54391042" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ54634494" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ54876124" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55132992" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55381801" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55620759" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ53656317" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ53886054" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ54150809" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ54391042" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54634494" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ54876124" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ55132992" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55381801" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ55620759" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ06172954" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06373894" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06570227" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06770780" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06966384" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ07166516" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ07362230" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07558392" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ07754220" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5282.603433985961</v>
+        <v>6676.183180749362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362323902015296</v>
+        <v>0.1792164474660907</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2032.54390500799</v>
+        <v>-1997.618298725779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4355337972192086</v>
+        <v>0.4430835748994261</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-394.1426537964985</v>
+        <v>-368.6274120603713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8368036036810985</v>
+        <v>0.8471093253883392</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>772.6195818849399</v>
+        <v>787.0346675671182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3930227826599488</v>
+        <v>0.3837832361471364</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507.5673422990251</v>
+        <v>516.2304404840504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5548979333973925</v>
+        <v>0.5479057002251457</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-760.2815847062157</v>
+        <v>-749.4823749111952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4085137647047176</v>
+        <v>0.4148594483757826</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.765682205665</v>
+        <v>1502.612553611824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07843648492222131</v>
+        <v>0.08111582517127776</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.55177593301008</v>
+        <v>81.94911917637853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7712504639187063</v>
+        <v>0.777974797183265</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2297.372983365383</v>
+        <v>-2295.649446614759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003376323027084994</v>
+        <v>0.000339088236624787</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.91292820293013</v>
+        <v>-16.16814319622707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6011903011185629</v>
+        <v>0.595157373800119</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>486.0012103417437</v>
+        <v>537.9502875873191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1332832005995084</v>
+        <v>0.07671766381768173</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.5413791653822</v>
+        <v>573.8912568093627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006957020498672678</v>
+        <v>3.742421165399838e-05</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4743806644598349</v>
+        <v>0.5050510334709042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005608943508314665</v>
+        <v>0.001405639903375994</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0005327687007361428</v>
+        <v>-0.0004849748694460698</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07850261259023818</v>
+        <v>0.08860448483015194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.41891159478168</v>
+        <v>1.669160094673755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6406445251189685</v>
+        <v>0.9639095463514631</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.96089714898077</v>
+        <v>4337.658391434816</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8230632119610819</v>
+        <v>0.339240528348222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4390.993916481386</v>
+        <v>-8531.894191619482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3336915658883628</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-9798.224659549991</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.03046775215607112</v>
+        <v>0.01850097980317504</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3755.752311617918</v>
+        <v>3565.052113520617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5298472894648163</v>
+        <v>0.4834001554926666</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612.736192536991</v>
+        <v>601.8756924020529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8294972660417683</v>
+        <v>0.8320605996755805</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.064015214339</v>
+        <v>457.5754390112796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8283005743847498</v>
+        <v>0.8306599741824174</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>578.2134274715938</v>
+        <v>576.4705134794931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5314626339545846</v>
+        <v>0.5322866800572483</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>852.6926949324663</v>
+        <v>852.9663122177008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3285155430182028</v>
+        <v>0.3280984872418333</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1344.980421601813</v>
+        <v>-1348.583103423767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1569245746412554</v>
+        <v>0.1547949773528619</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>556.013919959231</v>
+        <v>558.3332778313051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5270314781427973</v>
+        <v>0.5247002844184872</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>340.8603760959497</v>
+        <v>341.9077155244768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2427149850674481</v>
+        <v>0.2402020778578787</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1550.238637713156</v>
+        <v>-1549.610247720125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01594985561243618</v>
+        <v>0.01592319843818449</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.384957912979822</v>
+        <v>5.487795914895612</v>
       </c>
       <c r="C11" t="n">
-        <v>0.864328589150436</v>
+        <v>0.8614936419602247</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>248.7223276560625</v>
+        <v>242.0636172240107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4540080316082022</v>
+        <v>0.4399577861209419</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>456.8726633600518</v>
+        <v>464.5345555424218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01644766718349365</v>
+        <v>0.001137607059616212</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4170798188569194</v>
+        <v>0.4129354746019072</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01631495966658812</v>
+        <v>0.009686107714348788</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.213864190635573e-06</v>
+        <v>-6.988661943479666e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9967179223445282</v>
+        <v>0.9800335560243718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.220430701706277</v>
+        <v>38.24560671011591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9515131315074496</v>
+        <v>0.3226196670799222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.27620190813907</v>
+        <v>-3219.618160229688</v>
       </c>
       <c r="C17" t="n">
-        <v>0.373010568669691</v>
+        <v>0.4846475637139882</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3219.25502533905</v>
+        <v>-10492.20447647964</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4849278768605031</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-10327.53456145079</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02307249004731911</v>
+        <v>0.004031162679365146</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8367.09455924051</v>
+        <v>7547.718577278605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1589551204088545</v>
+        <v>0.1304155380225862</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1842.347526211125</v>
+        <v>-1885.69496440074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4141377258913038</v>
+        <v>0.4016688119336226</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2477.31034814754</v>
+        <v>-2471.953267736716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2306597401056558</v>
+        <v>0.2314135339872481</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.5867058941081</v>
+        <v>412.1683184185754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6454172253012841</v>
+        <v>0.645588097188873</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70.22038082971972</v>
+        <v>-70.35996426520774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9357580168406039</v>
+        <v>0.9355987624501428</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1048.023298712335</v>
+        <v>-1060.640474681464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2574663016260726</v>
+        <v>0.2508706213789751</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1161.16373429767</v>
+        <v>1172.027066340359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1753831905559212</v>
+        <v>0.1706403634535786</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-18.80926948561353</v>
+        <v>-13.41085839778498</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9476347758344891</v>
+        <v>0.9625296326758066</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1270.758439783312</v>
+        <v>-1271.223823675932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04509656850897837</v>
+        <v>0.0449110766360441</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-38.03442398309556</v>
+        <v>-37.39428643902026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2082908004858685</v>
+        <v>0.2142244971568409</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>530.4212894708194</v>
+        <v>500.8288629574129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1080869430709956</v>
+        <v>0.1048328606693407</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.4016464419632</v>
+        <v>512.8737464595688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01201059053217636</v>
+        <v>0.0002108071753061467</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5302283683397198</v>
+        <v>0.5134378118759259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001765660103253284</v>
+        <v>0.001006018960397465</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.973487930411287e-05</v>
+        <v>5.543772410604642e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.782653060421566</v>
+        <v>0.8389090823336898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.30521415922595</v>
+        <v>12.27503842084779</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7989546051174089</v>
+        <v>0.7445227517873279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.265964198499255</v>
+        <v>-2003.374441001505</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8396109370841144</v>
+        <v>0.6572607696190347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2023.961488007447</v>
+        <v>-11376.29261688704</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6541794514172008</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-10709.54048920144</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0155617606608586</v>
+        <v>0.001437932308276164</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1416.189382083729</v>
+        <v>3228.956405117797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8183841880419749</v>
+        <v>0.5379451167565613</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1450.014674391813</v>
+        <v>-1344.433093568792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5451221292808403</v>
+        <v>0.5734389067679422</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-521.8122834820233</v>
+        <v>-508.9651270784407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7867965560998064</v>
+        <v>0.7918347478022935</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.2138743941007</v>
+        <v>581.5286824768446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5350572066083316</v>
+        <v>0.5402049719210007</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>532.6213283059043</v>
+        <v>542.7571800190345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5530852942148026</v>
+        <v>0.5453301236769673</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1519.797371317319</v>
+        <v>-1492.756331822543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1127918672254612</v>
+        <v>0.1187241979914386</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>653.3177526571108</v>
+        <v>631.8005890656306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.464509122004913</v>
+        <v>0.4787740579871494</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229.0282726203356</v>
+        <v>227.5369171585101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4430293314149154</v>
+        <v>0.4458197417097698</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1478.823881475457</v>
+        <v>-1490.225008918803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02441464528352514</v>
+        <v>0.02322166790728777</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.92068288295217</v>
+        <v>-14.84466633155626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6577223602259246</v>
+        <v>0.6360037017247253</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-109.9785794343354</v>
+        <v>-47.06124954058501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7471166921239032</v>
+        <v>0.8837310714214852</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>672.4307739442893</v>
+        <v>599.7194594033206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005441921208000423</v>
+        <v>3.198182229420362e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3606802394164229</v>
+        <v>0.399828467698274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04500426475828363</v>
+        <v>0.01581827866605839</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.704474102576366e-05</v>
+        <v>0.0001435642323269974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7723884016468132</v>
+        <v>0.6123348305883968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.99072310042243</v>
+        <v>46.16110264251705</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5765918511079948</v>
+        <v>0.2451941450812034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.61731249361824</v>
+        <v>-4900.632979955024</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1979446904582101</v>
+        <v>0.2983909458127126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4864.582805471728</v>
+        <v>-7515.815560714173</v>
       </c>
       <c r="C18" t="n">
-        <v>0.302179012620816</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-9050.948505956036</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0502519220621901</v>
+        <v>0.04298578857454981</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-371.758395695597</v>
+        <v>1145.329932578253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9504118299376014</v>
+        <v>0.8212035028253584</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.53855791895944</v>
+        <v>19.83475502588476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.975927457260773</v>
+        <v>0.9931073060921516</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.4817330193332</v>
+        <v>630.2886015630729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7642685390759695</v>
+        <v>0.7519108873661775</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1737.057340052381</v>
+        <v>1746.960849757612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06158772031608226</v>
+        <v>0.05995519532933503</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.9424948297882</v>
+        <v>620.4970092497342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4771063256435286</v>
+        <v>0.4807310115596897</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1349.950000544439</v>
+        <v>-1336.074453065703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1504371453638797</v>
+        <v>0.1543064254130908</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>715.6406727624009</v>
+        <v>690.6577312255155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4170780265135337</v>
+        <v>0.4325271682872386</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.51808219395051</v>
+        <v>91.51403077552814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7378505786964566</v>
+        <v>0.7577809359161765</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-913.1417038300924</v>
+        <v>-915.9262740443083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1558526581360779</v>
+        <v>0.1544113485052927</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.64130548476792</v>
+        <v>-20.64390354176756</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5264649717578689</v>
+        <v>0.5044330851505778</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.7310252245263</v>
+        <v>580.3492639092767</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1052300368272706</v>
+        <v>0.06292162373517445</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>683.65275316357</v>
+        <v>622.9903904001166</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003553185382480556</v>
+        <v>1.387589668336599e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5554085764992693</v>
+        <v>0.5848423356391622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001202828172459009</v>
+        <v>0.0002597306978079955</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.708616776428706e-05</v>
+        <v>6.140688098558546e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9514272245432562</v>
+        <v>0.8165413425828377</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.62705200041025</v>
+        <v>41.86114367596064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6319477667087869</v>
+        <v>0.2749881594407845</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.49067287917804</v>
+        <v>-1138.345770635301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2335187820430335</v>
+        <v>0.8021392813966515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1121.631878925113</v>
+        <v>-12011.72780780069</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8050689023514085</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-13311.4872389313</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.003542753973235168</v>
+        <v>0.001053258639754475</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2953.384994494772</v>
+        <v>5941.556870321713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6239949487280568</v>
+        <v>0.2458576249476316</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2720.702717148303</v>
+        <v>-2492.02794896619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2717441070609712</v>
+        <v>0.3116880969393948</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408.7349555040835</v>
+        <v>396.6943586188733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8440278564592661</v>
+        <v>0.8485540108776399</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.2595153729041</v>
+        <v>447.6113192401974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6761515601287829</v>
+        <v>0.6482831840292717</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987.1898631967613</v>
+        <v>990.1599447003707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2722515545486642</v>
+        <v>0.2707801352698865</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1094.533065000808</v>
+        <v>-1036.919529807982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2564561141751886</v>
+        <v>0.2813225736144664</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1457.906419560667</v>
+        <v>1410.644061342281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1077272748811057</v>
+        <v>0.1190173464932361</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.27698475412041</v>
+        <v>3.7586824727927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.941161606143326</v>
+        <v>0.9900419008690504</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1746.845107518265</v>
+        <v>-1769.216936102251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008379072718570118</v>
+        <v>0.00754165470609235</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.18234256715837</v>
+        <v>-12.04909323238641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7481768928776475</v>
+        <v>0.7034501375462017</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>491.0989308911784</v>
+        <v>589.6623445707859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1455798417488558</v>
+        <v>0.0660726932298152</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.9299622907124</v>
+        <v>516.7286911979097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000868731639181164</v>
+        <v>0.0002746634605443933</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3059343148473818</v>
+        <v>0.3688864494963429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08754746909370952</v>
+        <v>0.02639869897960649</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001331637521307495</v>
+        <v>-4.602425847249737e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6440171942276149</v>
+        <v>0.8660449350348313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.28085913970274</v>
+        <v>12.93588278647948</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3471126766702535</v>
+        <v>0.7365910362992887</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.902359422095</v>
+        <v>-884.131992714958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5026608520092483</v>
+        <v>0.8493488647377381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-917.4101790098066</v>
+        <v>-7355.403364313307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8437641785328136</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-10003.32671444713</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0320276204271534</v>
+        <v>0.04781288131166119</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6825.068095316066</v>
+        <v>7763.960360839839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2349313618535566</v>
+        <v>0.1120186544572361</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2216.620229645363</v>
+        <v>-2144.855401446321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3369684708872555</v>
+        <v>0.3501826610776937</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-379.3660354464753</v>
+        <v>-360.1727558510396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8427901687385145</v>
+        <v>0.8504999514233932</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-331.19302439647</v>
+        <v>-322.7076282445872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7079264579592723</v>
+        <v>0.7148175721887255</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690.8533088830587</v>
+        <v>691.5996753624156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4136680770007808</v>
+        <v>0.4129384762996108</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-977.3931192686204</v>
+        <v>-960.6599180080472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2835165504164846</v>
+        <v>0.2907603961970162</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.803599288142</v>
+        <v>1025.874106571416</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2251040088204999</v>
+        <v>0.2294088261799195</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.5171505389515</v>
+        <v>235.5632658939514</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4000047188151165</v>
+        <v>0.4053749878908566</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1599.504660410845</v>
+        <v>-1605.160207518126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0106739266923047</v>
+        <v>0.01033237472024039</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-36.31902372637214</v>
+        <v>-36.96302536273114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2280760030569953</v>
+        <v>0.218626763940908</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298.4836026396987</v>
+        <v>330.1076328498503</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3483685214858533</v>
+        <v>0.2734853218874005</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.0357005913812</v>
+        <v>574.059009114417</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008795729220565897</v>
+        <v>2.920202082567425e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3796176285163231</v>
+        <v>0.3988442433714898</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02364761972138286</v>
+        <v>0.01050759115662581</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.326248250395535e-06</v>
+        <v>2.084036632198941e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9787097046771849</v>
+        <v>0.9358674600602302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.68146859866334</v>
+        <v>7.910520867953093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.756080937403844</v>
+        <v>0.8292997501387566</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.69516009477469</v>
+        <v>179.6307824716723</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7498037743103905</v>
+        <v>0.9674622838062077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>179.5927551500515</v>
+        <v>-9847.678542462199</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9674847226382906</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-10676.89747092793</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01621077297259185</v>
+        <v>0.005488172079946496</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1264.360322105747</v>
+        <v>4832.617939322856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8348559399981464</v>
+        <v>0.3505286704776091</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2031.684600882208</v>
+        <v>-1786.073208080185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4075441181583144</v>
+        <v>0.4648351461198889</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-613.6195526150764</v>
+        <v>-558.8391634453496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7546991626770425</v>
+        <v>0.7759485124132621</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.3271604528894</v>
+        <v>374.1128978004993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7087358141760508</v>
+        <v>0.6965402882627594</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381.3374602861122</v>
+        <v>387.836432509258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6710659145282201</v>
+        <v>0.6658365231988451</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1750.967117055387</v>
+        <v>-1694.989137846097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06826899998475131</v>
+        <v>0.07720406916388024</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>741.4913779291692</v>
+        <v>693.8075800337576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4061641355552742</v>
+        <v>0.436555508419298</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.0604588747162</v>
+        <v>66.34061976924085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7734050131470119</v>
+        <v>0.8260456554804863</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1672.567585341191</v>
+        <v>-1682.538708292433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01103688891569279</v>
+        <v>0.01057324730206131</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.20014591013815</v>
+        <v>-25.75102730192507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.458851972462987</v>
+        <v>0.4098328978753957</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.8107114421059</v>
+        <v>480.346911971009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2848017834235409</v>
+        <v>0.1322560348683638</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>670.6839897224386</v>
+        <v>526.8862459459536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004334788089521064</v>
+        <v>0.0001945498007275064</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4238974806245387</v>
+        <v>0.5006454187486219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0187647020860509</v>
+        <v>0.002748176929692871</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.811229954728135e-05</v>
+        <v>3.182051754791426e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7883021756362042</v>
+        <v>0.9075914889639687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.42323664252788</v>
+        <v>39.71505846834138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2594081115083575</v>
+        <v>0.3092037277936386</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.4164244329606</v>
+        <v>-1588.609028384027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1725738853644094</v>
+        <v>0.7346493181440383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1550.895953038607</v>
+        <v>-11722.1417466917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7406892311715628</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-14764.17227173797</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.001604697834085766</v>
+        <v>0.002147774843596087</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6119.736899341849</v>
+        <v>6683.317861054178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3024623448919829</v>
+        <v>0.1897813218007941</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1220.318780738675</v>
+        <v>-1185.436526641585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5934294751229704</v>
+        <v>0.6026157977176552</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>866.8744828227077</v>
+        <v>876.2111221169948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6517498557524423</v>
+        <v>0.6479707363886953</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1301.021364106424</v>
+        <v>1304.742548036309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1592035246454904</v>
+        <v>0.1577050571082654</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.5077989414191</v>
+        <v>654.5054905470463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.457668406232521</v>
+        <v>0.4552953502572685</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-693.1839046864835</v>
+        <v>-684.9571349808805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4587647622541905</v>
+        <v>0.4633817048343919</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>862.677525234111</v>
+        <v>853.8300311672583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3196188532401594</v>
+        <v>0.3236244468112873</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-44.16821330864241</v>
+        <v>-47.13440102979416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8789212932052166</v>
+        <v>0.8705988433862392</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1289.548801205412</v>
+        <v>-1293.23034116265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04266845635385721</v>
+        <v>0.04187664217904904</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.72643249293138</v>
+        <v>-17.04131761571283</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5884187361448708</v>
+        <v>0.5806544593346372</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>711.6115911876178</v>
+        <v>731.3187196583013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03094335489279386</v>
+        <v>0.01911487750685073</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.1999591672866</v>
+        <v>487.3664437349947</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006132015844935037</v>
+        <v>0.0004813225362213077</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3310692336338899</v>
+        <v>0.3430672891298959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05570572483340528</v>
+        <v>0.03248970916363743</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.6004124114034e-05</v>
+        <v>6.601047248708301e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8900526552632398</v>
+        <v>0.8338536870448681</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.561047709447621</v>
+        <v>2.425542273638634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8527498685681367</v>
+        <v>0.9498519150572584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.269392053545005</v>
+        <v>-4872.79784676412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8990021042349085</v>
+        <v>0.3138650586981906</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4840.58622767398</v>
+        <v>-7604.780836045877</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3176312967512792</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-8099.387756938575</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06980476762749398</v>
+        <v>0.03378404036409418</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_commute/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06172954" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06373894" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06570227" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06770780" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06966384" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07166516" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ07362230" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07558392" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ07754220" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13225680" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13434311" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13688460" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13925420" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14211389" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14420837" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14665882" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14926211" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ15130368" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6676.183180749362</v>
+        <v>6676.183179943882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1792164474660907</v>
+        <v>0.1792164475007408</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1997.618298725779</v>
+        <v>-1997.618298652002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4430835748994261</v>
+        <v>0.4430835748994517</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-368.6274120603713</v>
+        <v>-368.6274119531776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8471093253883392</v>
+        <v>0.8471093254305581</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.0346675671182</v>
+        <v>787.0346676360365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3837832361471364</v>
+        <v>0.3837832360910011</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>516.2304404840504</v>
+        <v>516.2304405217801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5479057002251457</v>
+        <v>0.547905700195976</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-749.4823749111952</v>
+        <v>-749.4823748880676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4148594483757826</v>
+        <v>0.4148594483908346</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1502.612553611824</v>
+        <v>1502.612553675801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08111582517127776</v>
+        <v>0.08111582515970442</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.94911917637853</v>
+        <v>81.94911922516866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.777974797183265</v>
+        <v>0.777974797052291</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2295.649446614759</v>
+        <v>-2295.649446620007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000339088236624787</v>
+        <v>0.0003390882366152614</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.16814319622707</v>
+        <v>-16.16814318769254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.595157373800119</v>
+        <v>0.5951573739788918</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>537.9502875873191</v>
+        <v>537.9502877403197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07671766381768173</v>
+        <v>0.07671766373623</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>573.8912568093627</v>
+        <v>573.8912568329524</v>
       </c>
       <c r="C13" t="n">
-        <v>3.742421165399838e-05</v>
+        <v>3.742421161372903e-05</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5050510334709042</v>
+        <v>50.50510334766631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001405639903375994</v>
+        <v>0.00140563990310994</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004849748694460698</v>
+        <v>-484.9748692017182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08860448483015194</v>
+        <v>0.08860448498771985</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.669160094673755</v>
+        <v>1.669160094674282</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9639095463514631</v>
+        <v>0.9639095463514515</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4337.658391434816</v>
+        <v>43.37658391434829</v>
       </c>
       <c r="C17" t="n">
-        <v>0.339240528348222</v>
+        <v>0.3392405283482205</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8531.894191619482</v>
+        <v>-85.31894191619632</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01850097980317504</v>
+        <v>0.01850097980317265</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3565.052113520617</v>
+        <v>3565.052113193323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4834001554926666</v>
+        <v>0.4834001555547339</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>601.8756924020529</v>
+        <v>601.875692379185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8320605996755805</v>
+        <v>0.832060599675593</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457.5754390112796</v>
+        <v>457.5754390124828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8306599741824174</v>
+        <v>0.8306599741820586</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.4705134794931</v>
+        <v>576.4705134760079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5322866800572483</v>
+        <v>0.5322866800576589</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>852.9663122177008</v>
+        <v>852.9663122167824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3280984872418333</v>
+        <v>0.3280984872424157</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1348.583103423767</v>
+        <v>-1348.583103418497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1547949773528619</v>
+        <v>0.1547949773531661</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>558.3332778313051</v>
+        <v>558.3332778414347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5247002844184872</v>
+        <v>0.5247002844089567</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>341.9077155244768</v>
+        <v>341.9077155312135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2402020778578787</v>
+        <v>0.2402020778514328</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1549.610247720125</v>
+        <v>-1549.61024770286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01592319843818449</v>
+        <v>0.01592319843992092</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.487795914895612</v>
+        <v>5.487795914256463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8614936419602247</v>
+        <v>0.8614936419752548</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>242.0636172240107</v>
+        <v>242.0636172520311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4399577861209419</v>
+        <v>0.4399577860582341</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>464.5345555424218</v>
+        <v>464.5345555482842</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001137607059616212</v>
+        <v>0.001137607059771377</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4129354746019072</v>
+        <v>41.29354746061857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009686107714348788</v>
+        <v>0.009686107714916707</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.988661943479666e-06</v>
+        <v>-6.988662561056856</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9800335560243718</v>
+        <v>0.9800335542554021</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.24560671011591</v>
+        <v>38.24560671011528</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3226196670799222</v>
+        <v>0.3226196670799309</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3219.618160229688</v>
+        <v>-32.19618160229596</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4846475637139882</v>
+        <v>0.4846475637140013</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-10492.20447647964</v>
+        <v>-104.9220447648002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004031162679365146</v>
+        <v>0.004031162679363742</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7547.718577278605</v>
+        <v>7547.718576293277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1304155380225862</v>
+        <v>0.1304155380521812</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1885.69496440074</v>
+        <v>-1885.694964592673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4016688119336226</v>
+        <v>0.4016688119337294</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2471.953267736716</v>
+        <v>-2471.953267711215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2314135339872481</v>
+        <v>0.2314135339908499</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.1683184185754</v>
+        <v>412.1683184523733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.645588097188873</v>
+        <v>0.6455880971565675</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70.35996426520774</v>
+        <v>-70.35996429577978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9355987624501428</v>
+        <v>0.9355987624221689</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1060.640474681464</v>
+        <v>-1060.640474665957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2508706213789751</v>
+        <v>0.2508706213867884</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1172.027066340359</v>
+        <v>1172.027066351997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1706403634535786</v>
+        <v>0.1706403634497076</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13.41085839778498</v>
+        <v>-13.41085841405464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9625296326758066</v>
+        <v>0.9625296326305386</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1271.223823675932</v>
+        <v>-1271.223823645034</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0449110766360441</v>
+        <v>0.04491107664074462</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.39428643902026</v>
+        <v>-37.39428643939436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2142244971568409</v>
+        <v>0.2142244971531755</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>500.8288629574129</v>
+        <v>500.8288630421205</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1048328606693407</v>
+        <v>0.1048328606187513</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>512.8737464595688</v>
+        <v>512.8737464778276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002108071753061467</v>
+        <v>0.0002108071751343983</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5134378118759259</v>
+        <v>51.34378118781297</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001006018960397465</v>
+        <v>0.001006018960317127</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.543772410604642e-05</v>
+        <v>55.43772461367637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8389090823336898</v>
+        <v>0.8389090808865726</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.27503842084779</v>
+        <v>12.275038420849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7445227517873279</v>
+        <v>0.7445227517873041</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2003.374441001505</v>
+        <v>-20.03374441001474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6572607696190347</v>
+        <v>0.6572607696190392</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11376.29261688704</v>
+        <v>-113.7629261688708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001437932308276164</v>
+        <v>0.001437932308276142</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3228.956405117797</v>
+        <v>3228.956403982091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5379451167565613</v>
+        <v>0.5379451168622567</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1344.433093568792</v>
+        <v>-1344.433093589076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5734389067679422</v>
+        <v>0.5734389067679759</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-508.9651270784407</v>
+        <v>-508.9651270154556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7918347478022935</v>
+        <v>0.7918347478253629</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>581.5286824768446</v>
+        <v>581.5286825316833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5402049719210007</v>
+        <v>0.5402049718682345</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542.7571800190345</v>
+        <v>542.7571800734402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5453301236769673</v>
+        <v>0.5453301236374664</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1492.756331822543</v>
+        <v>-1492.756331789741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1187241979914386</v>
+        <v>0.1187241980010701</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.8005890656306</v>
+        <v>631.8005891433789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4787740579871494</v>
+        <v>0.4787740579363639</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.5369171585101</v>
+        <v>227.5369172002285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4458197417097698</v>
+        <v>0.4458197416183486</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1490.225008918803</v>
+        <v>-1490.225008892639</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02322166790728777</v>
+        <v>0.02322166790923482</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14.84466633155626</v>
+        <v>-14.84466632860676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6360037017247253</v>
+        <v>0.6360037017838871</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-47.06124954058501</v>
+        <v>-47.06124945810726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8837310714214852</v>
+        <v>0.8837310716276943</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>599.7194594033206</v>
+        <v>599.7194594331664</v>
       </c>
       <c r="C13" t="n">
-        <v>3.198182229420362e-05</v>
+        <v>3.198182223918781e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.399828467698274</v>
+        <v>39.98284676976257</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01581827866605839</v>
+        <v>0.01581827866634679</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001435642323269974</v>
+        <v>143.564232131008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6123348305883968</v>
+        <v>0.6123348310179921</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.16110264251705</v>
+        <v>46.16110264251901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2451941450812034</v>
+        <v>0.245194145081183</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4900.632979955024</v>
+        <v>-49.00632979954993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2983909458127126</v>
+        <v>0.2983909458127167</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7515.815560714173</v>
+        <v>-75.15815560714307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04298578857454981</v>
+        <v>0.04298578857454579</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1145.329932578253</v>
+        <v>1145.329932574773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8212035028253584</v>
+        <v>0.8212035028288768</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.83475502588476</v>
+        <v>19.83475502691272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9931073060921516</v>
+        <v>0.9931073060921325</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.2886015630729</v>
+        <v>630.2886015641889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7519108873661775</v>
+        <v>0.7519108873684074</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1746.960849757612</v>
+        <v>1746.960849758092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05995519532933503</v>
+        <v>0.05995519533479874</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620.4970092497342</v>
+        <v>620.4970092499657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4807310115596897</v>
+        <v>0.4807310115592658</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1336.074453065703</v>
+        <v>-1336.074453065697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1543064254130908</v>
+        <v>0.1543064254130498</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>690.6577312255155</v>
+        <v>690.6577312255654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4325271682872386</v>
+        <v>0.4325271682869918</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.51403077552814</v>
+        <v>91.51403077473019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7577809359161765</v>
+        <v>0.7577809359137981</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-915.9262740443083</v>
+        <v>-915.9262740444336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1544113485052927</v>
+        <v>0.1544113485048514</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.64390354176756</v>
+        <v>-20.64390354171976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5044330851505778</v>
+        <v>0.5044330851628178</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>580.3492639092767</v>
+        <v>580.3492639095382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06292162373517445</v>
+        <v>0.06292162373387039</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>622.9903904001166</v>
+        <v>622.990390400273</v>
       </c>
       <c r="C13" t="n">
-        <v>1.387589668336599e-05</v>
+        <v>1.387589668743515e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5848423356391622</v>
+        <v>58.48423356391521</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002597306978079955</v>
+        <v>0.0002597306977832724</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.140688098558546e-05</v>
+        <v>61.4068806617592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8165413425828377</v>
+        <v>0.8165413435067531</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.86114367596064</v>
+        <v>41.86114367596268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2749881594407845</v>
+        <v>0.2749881594407591</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1138.345770635301</v>
+        <v>-11.38345770635092</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8021392813966515</v>
+        <v>0.802139281396687</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-12011.72780780069</v>
+        <v>-120.1172780780126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001053258639754475</v>
+        <v>0.001053258639753861</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5941.556870321713</v>
+        <v>5941.556869534801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2458576249476316</v>
+        <v>0.2458576249939299</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2492.02794896619</v>
+        <v>-2492.027948921789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3116880969393948</v>
+        <v>0.3116880969393591</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.6943586188733</v>
+        <v>396.6943587108909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8485540108776399</v>
+        <v>0.8485540108418378</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447.6113192401974</v>
+        <v>447.6113192833267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6482831840292717</v>
+        <v>0.648283183992537</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>990.1599447003707</v>
+        <v>990.1599447044897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2707801352698865</v>
+        <v>0.2707801352679338</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1036.919529807982</v>
+        <v>-1036.919529799881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2813225736144664</v>
+        <v>0.2813225736186166</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.644061342281</v>
+        <v>1410.644061373241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1190173464932361</v>
+        <v>0.1190173464856165</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.7586824727927</v>
+        <v>3.758682329083754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9900419008690504</v>
+        <v>0.9900419012500334</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1769.216936102251</v>
+        <v>-1769.216936054672</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00754165470609235</v>
+        <v>0.00754165470751901</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.04909323238641</v>
+        <v>-12.04909323623569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7034501375462017</v>
+        <v>0.7034501374614403</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>589.6623445707859</v>
+        <v>589.6623445822939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0660726932298152</v>
+        <v>0.06607269322513683</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.7286911979097</v>
+        <v>516.7286912347483</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002746634605443933</v>
+        <v>0.0002746634601604698</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3688864494963429</v>
+        <v>36.88864494861057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02639869897960649</v>
+        <v>0.02639869898513751</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.602425847249737e-05</v>
+        <v>-46.02425830429266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8660449350348313</v>
+        <v>0.8660449355251629</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.93588278647948</v>
+        <v>12.93588278647983</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7365910362992887</v>
+        <v>0.7365910362992818</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-884.131992714958</v>
+        <v>-8.841319927149144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8493488647377381</v>
+        <v>0.8493488647377456</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7355.403364313307</v>
+        <v>-73.5540336431341</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04781288131166119</v>
+        <v>0.04781288131165801</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7763.960360839839</v>
+        <v>7763.960360879636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1120186544572361</v>
+        <v>0.112018654456119</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2144.855401446321</v>
+        <v>-2144.855401474397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3501826610776937</v>
+        <v>0.3501826610776968</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-360.1727558510396</v>
+        <v>-360.1727558158318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8504999514233932</v>
+        <v>0.8504999514373648</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-322.7076282445872</v>
+        <v>-322.7076282193158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7148175721887255</v>
+        <v>0.7148175722072786</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>691.5996753624156</v>
+        <v>691.5996753809357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4129384762996108</v>
+        <v>0.4129384762872126</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-960.6599180080472</v>
+        <v>-960.6599180274484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2907603961970162</v>
+        <v>0.2907603961863974</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1025.874106571416</v>
+        <v>1025.874106565253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2294088261799195</v>
+        <v>0.2294088261825104</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.5632658939514</v>
+        <v>235.5632659731615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4053749878908566</v>
+        <v>0.4053749877253185</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1605.160207518126</v>
+        <v>-1605.16020755289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01033237472024039</v>
+        <v>0.01033237471869829</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-36.96302536273114</v>
+        <v>-36.96302535971227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.218626763940908</v>
+        <v>0.2186267639719748</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330.1076328498503</v>
+        <v>330.1076328484455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2734853218874005</v>
+        <v>0.2734853218892676</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.059009114417</v>
+        <v>574.0590091506486</v>
       </c>
       <c r="C13" t="n">
-        <v>2.920202082567425e-05</v>
+        <v>2.920202077499937e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3988442433714898</v>
+        <v>39.8844243386567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01050759115662581</v>
+        <v>0.01050759115265627</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.084036632198941e-05</v>
+        <v>20.8403665448526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9358674600602302</v>
+        <v>0.9358674593926909</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.910520867953093</v>
+        <v>7.910520867956116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8292997501387566</v>
+        <v>0.8292997501386914</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.6307824716723</v>
+        <v>1.796307824716976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9674622838062077</v>
+        <v>0.967462283806203</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9847.678542462199</v>
+        <v>-98.47678542462285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005488172079946496</v>
+        <v>0.005488172079946106</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4832.617939322856</v>
+        <v>4832.617939248005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3505286704776091</v>
+        <v>0.3505286704829081</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1786.073208080185</v>
+        <v>-1786.073208013481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4648351461198889</v>
+        <v>0.4648351461198451</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-558.8391634453496</v>
+        <v>-558.8391634197628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7759485124132621</v>
+        <v>0.7759485124225682</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.1128978004993</v>
+        <v>374.1128978466498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6965402882627594</v>
+        <v>0.6965402882205252</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>387.836432509258</v>
+        <v>387.8364325095421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6658365231988451</v>
+        <v>0.6658365231986136</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1694.989137846097</v>
+        <v>-1694.989137875813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07720406916388024</v>
+        <v>0.07720406915752835</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>693.8075800337576</v>
+        <v>693.8075800280194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.436555508419298</v>
+        <v>0.4365555084229737</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.34061976924085</v>
+        <v>66.34061973238317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8260456554804863</v>
+        <v>0.8260456555772473</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1682.538708292433</v>
+        <v>-1682.538708322801</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01057324730206131</v>
+        <v>0.01057324730103015</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.75102730192507</v>
+        <v>-25.75102730416604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4098328978753957</v>
+        <v>0.409832897840899</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>480.346911971009</v>
+        <v>480.3469119116888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1322560348683638</v>
+        <v>0.1322560349095361</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>526.8862459459536</v>
+        <v>526.8862459824946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001945498007275064</v>
+        <v>0.0001945498004019061</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5006454187486219</v>
+        <v>50.06454187482797</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002748176929692871</v>
+        <v>0.002748176929731147</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.182051754791426e-05</v>
+        <v>31.82051767687494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9075914889639687</v>
+        <v>0.9075914886037404</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.71505846834138</v>
+        <v>39.71505846834143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3092037277936386</v>
+        <v>0.3092037277936379</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1588.609028384027</v>
+        <v>-15.88609028383997</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7346493181440383</v>
+        <v>0.734649318144043</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-11722.1417466917</v>
+        <v>-117.2214174669175</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002147774843596087</v>
+        <v>0.002147774843595975</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6683.317861054178</v>
+        <v>6683.317861400543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1897813218007941</v>
+        <v>0.1897813217911098</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1185.436526641585</v>
+        <v>-1185.436526547998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6026157977176552</v>
+        <v>0.6026157977176223</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>876.2111221169948</v>
+        <v>876.2111220805612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6479707363886953</v>
+        <v>0.6479707364044593</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1304.742548036309</v>
+        <v>1304.742548005001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1577050571082654</v>
+        <v>0.1577050571279999</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654.5054905470463</v>
+        <v>654.5054905424919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4552953502572685</v>
+        <v>0.4552953502603526</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-684.9571349808805</v>
+        <v>-684.9571349574754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4633817048343919</v>
+        <v>0.4633817048516869</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>853.8300311672583</v>
+        <v>853.8300311848286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3236244468112873</v>
+        <v>0.3236244468023884</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-47.13440102979416</v>
+        <v>-47.13440105709574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8705988433862392</v>
+        <v>0.8705988433133455</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1293.23034116265</v>
+        <v>-1293.230341155231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04187664217904904</v>
+        <v>0.0418766421800281</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-17.04131761571283</v>
+        <v>-17.04131761913967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5806544593346372</v>
+        <v>0.5806544592702664</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>731.3187196583013</v>
+        <v>731.3187196875928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01911487750685073</v>
+        <v>0.01911487750336216</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.3664437349947</v>
+        <v>487.3664437280525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004813225362213077</v>
+        <v>0.0004813225363854131</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3430672891298959</v>
+        <v>34.3067289127063</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03248970916363743</v>
+        <v>0.03248970916589106</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.601047248708301e-05</v>
+        <v>66.01047237438056</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8338536870448681</v>
+        <v>0.8338536873221397</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.425542273638634</v>
+        <v>2.425542273638692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9498519150572584</v>
+        <v>0.9498519150572572</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4872.79784676412</v>
+        <v>-48.72797846764109</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3138650586981906</v>
+        <v>0.3138650586981916</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7604.780836045877</v>
+        <v>-76.0478083604594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03378404036409418</v>
+        <v>0.03378404036409244</v>
       </c>
     </row>
   </sheetData>
